--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.01415577287749911</v>
+        <v>0.06002781679967685</v>
       </c>
       <c r="E2">
-        <v>0.01415577287749911</v>
+        <v>0.06002781679967685</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.879416094349201E-21</v>
+        <v>1.368178241691181E-22</v>
       </c>
       <c r="E3">
-        <v>2.879416094349201E-21</v>
+        <v>1.368178241691181E-22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.920247459427459E-07</v>
+        <v>0.001613110215634427</v>
       </c>
       <c r="E4">
-        <v>3.920247459427459E-07</v>
+        <v>0.001613110215634427</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8647116600451827</v>
+        <v>0.8510013237162374</v>
       </c>
       <c r="E5">
-        <v>0.8647116600451827</v>
+        <v>0.8510013237162374</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.998301287693181</v>
+        <v>0.9999430540994376</v>
       </c>
       <c r="E6">
-        <v>0.998301287693181</v>
+        <v>0.9999430540994376</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999096962487</v>
+        <v>0.9999999833317851</v>
       </c>
       <c r="E7">
-        <v>9.030375125451684E-08</v>
+        <v>1.666821491941306E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.999591692098347</v>
+        <v>0.9750024959055397</v>
       </c>
       <c r="E8">
-        <v>0.0004083079016530267</v>
+        <v>0.02499750409446033</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9959249960303618</v>
+        <v>0.9958556929827005</v>
       </c>
       <c r="E9">
-        <v>0.004075003969638225</v>
+        <v>0.004144307017299509</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999999999917233</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>8.276712648580542E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9259986793766591</v>
+        <v>0.9996056178377913</v>
       </c>
       <c r="E11">
-        <v>0.07400132062334086</v>
+        <v>0.0003943821622086618</v>
       </c>
       <c r="F11">
-        <v>0.8473862409591675</v>
+        <v>1.177060961723328</v>
       </c>
       <c r="G11">
         <v>0.8</v>
